--- a/rok 2/Systemy operacyjne/L2.1/histogram.xlsx
+++ b/rok 2/Systemy operacyjne/L2.1/histogram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petit\Desktop\repos\UO\rok 2\Systemy operacyjne\L2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D727510-5587-4B1E-A553-6B492A3D74A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89B0839-179E-435E-AC8B-A0BAD0D855A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D04307B-96E6-4A02-BEBD-A8BCFD07B109}"/>
+    <workbookView minimized="1" xWindow="8535" yWindow="2055" windowWidth="18435" windowHeight="11565" xr2:uid="{6D04307B-96E6-4A02-BEBD-A8BCFD07B109}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz" sheetId="3" r:id="rId1"/>
@@ -719,15 +719,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>204420</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>37001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>556846</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>113201</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -763,8 +763,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2047874" y="1795462"/>
-              <a:ext cx="6048375" cy="2743200"/>
+              <a:off x="2028824" y="989501"/>
+              <a:ext cx="6433772" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1096,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D077F7-60D5-48ED-9814-54BC7072D2B9}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/rok 2/Systemy operacyjne/L2.1/histogram.xlsx
+++ b/rok 2/Systemy operacyjne/L2.1/histogram.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petit\Desktop\repos\UO\rok 2\Systemy operacyjne\L2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89B0839-179E-435E-AC8B-A0BAD0D855A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED1BD04-CC1B-4368-BF22-746803FC1669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8535" yWindow="2055" windowWidth="18435" windowHeight="11565" xr2:uid="{6D04307B-96E6-4A02-BEBD-A8BCFD07B109}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D04307B-96E6-4A02-BEBD-A8BCFD07B109}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Arkusz!$A$1:$A$100</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Arkusz!$A$1:$A$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -103,7 +102,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -763,8 +762,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2028824" y="989501"/>
-              <a:ext cx="6433772" cy="2743200"/>
+              <a:off x="2033220" y="989501"/>
+              <a:ext cx="6448426" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1094,90 +1093,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D077F7-60D5-48ED-9814-54BC7072D2B9}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>MAX(A1:A100)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-22</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-26</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-20</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-2</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-5</v>
       </c>

--- a/rok 2/Systemy operacyjne/L2.1/histogram.xlsx
+++ b/rok 2/Systemy operacyjne/L2.1/histogram.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petit\Desktop\repos\UO\rok 2\Systemy operacyjne\L2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED1BD04-CC1B-4368-BF22-746803FC1669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472E6DE6-2F14-426A-A042-A1EF9DAD029B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D04307B-96E6-4A02-BEBD-A8BCFD07B109}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Arkusz!$A$1:$A$100</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Arkusz!$A$1:$A$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -153,7 +154,7 @@
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
         <cx:tickLabels/>
-        <cx:numFmt formatCode="# ##0" sourceLinked="0"/>
+        <cx:numFmt formatCode="# ##0,0" sourceLinked="0"/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
@@ -1096,7 +1097,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
